--- a/scraper/top_remaining_spreadsheets_states/top_remaining_OR.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_OR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>STATE</t>
   </si>
@@ -41,27 +41,27 @@
     <t>$1.00 Games</t>
   </si>
   <si>
+    <t>Tic-Tac-Toad</t>
+  </si>
+  <si>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>Gone Squatchin</t>
+  </si>
+  <si>
+    <t>Oregon Lottery Promotional Game</t>
+  </si>
+  <si>
+    <t>Jack Cash</t>
+  </si>
+  <si>
     <t>Crabby Cash</t>
   </si>
   <si>
     <t>2019-02-27</t>
   </si>
   <si>
-    <t>Tic-Tac-Toad</t>
-  </si>
-  <si>
-    <t>2019-03-07</t>
-  </si>
-  <si>
-    <t>Gone Squatchin</t>
-  </si>
-  <si>
-    <t>Oregon Lottery Promotional Game</t>
-  </si>
-  <si>
-    <t>Jack Cash</t>
-  </si>
-  <si>
     <t>The Big Cheese</t>
   </si>
   <si>
@@ -77,45 +77,45 @@
     <t>Clockwork Crossword</t>
   </si>
   <si>
+    <t>Extreme 8s</t>
+  </si>
+  <si>
+    <t>Big Bass Bingo</t>
+  </si>
+  <si>
+    <t>Polly Wants A Crossword</t>
+  </si>
+  <si>
+    <t>Fat Cat Tripler</t>
+  </si>
+  <si>
+    <t>Moonlight Money</t>
+  </si>
+  <si>
+    <t>Chili Pepper Crossword</t>
+  </si>
+  <si>
+    <t>Money Multiplier</t>
+  </si>
+  <si>
+    <t>Cash Grab</t>
+  </si>
+  <si>
+    <t>Oregon Riches</t>
+  </si>
+  <si>
+    <t>100 Frenzy</t>
+  </si>
+  <si>
+    <t>Road Trip</t>
+  </si>
+  <si>
+    <t>Bulldog Bingo</t>
+  </si>
+  <si>
     <t>Cabana Crossword</t>
   </si>
   <si>
-    <t>Extreme 8s</t>
-  </si>
-  <si>
-    <t>Big Bass Bingo</t>
-  </si>
-  <si>
-    <t>Polly Wants A Crossword</t>
-  </si>
-  <si>
-    <t>Fat Cat Tripler</t>
-  </si>
-  <si>
-    <t>Moonlight Money</t>
-  </si>
-  <si>
-    <t>Chili Pepper Crossword</t>
-  </si>
-  <si>
-    <t>Money Multiplier</t>
-  </si>
-  <si>
-    <t>Cash Grab</t>
-  </si>
-  <si>
-    <t>100 Frenzy</t>
-  </si>
-  <si>
-    <t>Road Trip</t>
-  </si>
-  <si>
-    <t>Oregon Riches</t>
-  </si>
-  <si>
-    <t>Bulldog Bingo</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
@@ -194,16 +194,19 @@
     <t>TopazTreasure</t>
   </si>
   <si>
+    <t>1000 Frenzy</t>
+  </si>
+  <si>
+    <t>Emerald 10s</t>
+  </si>
+  <si>
+    <t>Hog Wild Crossword</t>
+  </si>
+  <si>
     <t>Cash Attack</t>
   </si>
   <si>
-    <t>1000 Frenzy</t>
-  </si>
-  <si>
-    <t>Hog Wild Crossword</t>
-  </si>
-  <si>
-    <t>Emerald 10s</t>
+    <t>2019-03-11</t>
   </si>
   <si>
     <t>Black Ice</t>
@@ -599,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1229</v>
+        <v>1247</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -619,13 +622,13 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1247</v>
+        <v>1283</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -636,16 +639,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>1283</v>
+        <v>9974</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>1177</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -656,16 +659,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>9974</v>
+        <v>1263</v>
       </c>
       <c r="E5">
-        <v>1180</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -676,16 +679,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>1229</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
         <v>14</v>
-      </c>
-      <c r="D6">
-        <v>1263</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -705,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -725,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -745,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -765,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -779,13 +782,13 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>1245</v>
+        <v>1228</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -799,13 +802,13 @@
         <v>21</v>
       </c>
       <c r="D12">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -819,13 +822,13 @@
         <v>22</v>
       </c>
       <c r="D13">
-        <v>1232</v>
+        <v>1272</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -839,13 +842,13 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>1272</v>
+        <v>1287</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -859,13 +862,13 @@
         <v>24</v>
       </c>
       <c r="D15">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -879,13 +882,13 @@
         <v>25</v>
       </c>
       <c r="D16">
-        <v>1270</v>
+        <v>1223</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -899,13 +902,13 @@
         <v>26</v>
       </c>
       <c r="D17">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -919,13 +922,13 @@
         <v>27</v>
       </c>
       <c r="D18">
-        <v>1222</v>
+        <v>1274</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -939,13 +942,13 @@
         <v>28</v>
       </c>
       <c r="D19">
-        <v>1274</v>
+        <v>1249</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -965,7 +968,7 @@
         <v>978</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -985,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -999,13 +1002,13 @@
         <v>31</v>
       </c>
       <c r="D22">
-        <v>1249</v>
+        <v>1215</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1019,13 +1022,13 @@
         <v>32</v>
       </c>
       <c r="D23">
-        <v>1215</v>
+        <v>1245</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1045,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1065,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1085,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1105,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1125,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1145,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1165,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1185,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1205,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1225,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1245,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1265,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1285,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1305,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1325,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1345,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1365,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1385,7 +1388,7 @@
         <v>194</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1405,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1425,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1445,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1465,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1485,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1499,13 +1502,13 @@
         <v>59</v>
       </c>
       <c r="D47">
-        <v>1276</v>
+        <v>1237</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1519,13 +1522,13 @@
         <v>60</v>
       </c>
       <c r="D48">
-        <v>1237</v>
+        <v>1294</v>
       </c>
       <c r="E48">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1545,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1559,13 +1562,13 @@
         <v>62</v>
       </c>
       <c r="D50">
-        <v>1294</v>
+        <v>1276</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1576,7 +1579,7 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D51">
         <v>1265</v>
@@ -1585,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1593,10 +1596,10 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52">
         <v>1258</v>
@@ -1605,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1613,10 +1616,10 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53">
         <v>1214</v>
@@ -1625,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1633,10 +1636,10 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54">
         <v>1266</v>
@@ -1645,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_OR.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_OR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>STATE</t>
   </si>
@@ -44,24 +44,21 @@
     <t>Tic-Tac-Toad</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>Mermaid Money</t>
   </si>
   <si>
     <t>Gone Squatchin</t>
   </si>
   <si>
+    <t>Jack Cash</t>
+  </si>
+  <si>
     <t>Oregon Lottery Promotional Game</t>
   </si>
   <si>
-    <t>Jack Cash</t>
-  </si>
-  <si>
-    <t>Crabby Cash</t>
-  </si>
-  <si>
-    <t>2019-02-27</t>
-  </si>
-  <si>
     <t>The Big Cheese</t>
   </si>
   <si>
@@ -77,37 +74,37 @@
     <t>Clockwork Crossword</t>
   </si>
   <si>
+    <t>Big Bass Bingo</t>
+  </si>
+  <si>
     <t>Extreme 8s</t>
   </si>
   <si>
-    <t>Big Bass Bingo</t>
+    <t>Fat Cat Tripler</t>
+  </si>
+  <si>
+    <t>Chili Pepper Crossword</t>
+  </si>
+  <si>
+    <t>Pirates Bay</t>
+  </si>
+  <si>
+    <t>Money Multiplier</t>
   </si>
   <si>
     <t>Polly Wants A Crossword</t>
   </si>
   <si>
-    <t>Fat Cat Tripler</t>
+    <t>Oregon Riches</t>
   </si>
   <si>
     <t>Moonlight Money</t>
   </si>
   <si>
-    <t>Chili Pepper Crossword</t>
-  </si>
-  <si>
-    <t>Money Multiplier</t>
-  </si>
-  <si>
     <t>Cash Grab</t>
   </si>
   <si>
-    <t>Oregon Riches</t>
-  </si>
-  <si>
-    <t>100 Frenzy</t>
-  </si>
-  <si>
-    <t>Road Trip</t>
+    <t>2019-03-26</t>
   </si>
   <si>
     <t>Bulldog Bingo</t>
@@ -122,19 +119,22 @@
     <t>Red Line Doubler</t>
   </si>
   <si>
+    <t>Old Time Bingo</t>
+  </si>
+  <si>
     <t>Game of Riches</t>
   </si>
   <si>
-    <t>Old Time Bingo</t>
-  </si>
-  <si>
     <t>Daily Crossword</t>
   </si>
   <si>
+    <t>Gold Rush Bingo</t>
+  </si>
+  <si>
     <t>8 Ball Bingo</t>
   </si>
   <si>
-    <t>Sky High Crossword</t>
+    <t>2019-03-31</t>
   </si>
   <si>
     <t>$5.00 Games</t>
@@ -149,36 +149,33 @@
     <t>Limited Edition</t>
   </si>
   <si>
+    <t>Roller Derby</t>
+  </si>
+  <si>
     <t>Phoenix Rising</t>
   </si>
   <si>
-    <t>Roller Derby</t>
+    <t>Money Mania</t>
+  </si>
+  <si>
+    <t>Pot of Gold</t>
   </si>
   <si>
     <t>Cherry Tripler</t>
   </si>
   <si>
+    <t>Fish-n-Chips</t>
+  </si>
+  <si>
+    <t>Emerald Heist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kraken Cash </t>
+  </si>
+  <si>
     <t>Red Hot &amp; Wild 9s</t>
   </si>
   <si>
-    <t>Money Mania</t>
-  </si>
-  <si>
-    <t>Pot of Gold</t>
-  </si>
-  <si>
-    <t>Emerald Heist</t>
-  </si>
-  <si>
-    <t>Fish-n-Chips</t>
-  </si>
-  <si>
-    <t>500 Frenzy</t>
-  </si>
-  <si>
-    <t>Joker's Wild Crossword</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
@@ -191,28 +188,19 @@
     <t>100K Jackpot</t>
   </si>
   <si>
+    <t>Emerald 10s</t>
+  </si>
+  <si>
+    <t>1000 Frenzy</t>
+  </si>
+  <si>
+    <t>Dragon Riches</t>
+  </si>
+  <si>
     <t>TopazTreasure</t>
   </si>
   <si>
-    <t>1000 Frenzy</t>
-  </si>
-  <si>
-    <t>Emerald 10s</t>
-  </si>
-  <si>
     <t>Hog Wild Crossword</t>
-  </si>
-  <si>
-    <t>Cash Attack</t>
-  </si>
-  <si>
-    <t>2019-03-11</t>
-  </si>
-  <si>
-    <t>Black Ice</t>
-  </si>
-  <si>
-    <t>2019-02-14</t>
   </si>
   <si>
     <t>$20.00 Games</t>
@@ -563,7 +551,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,10 +610,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1283</v>
+        <v>1288</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -642,10 +630,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>9974</v>
+        <v>1283</v>
       </c>
       <c r="E4">
-        <v>1177</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -682,13 +670,13 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>1229</v>
+        <v>9974</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1144</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -699,13 +687,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>1280</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -719,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>1273</v>
@@ -736,10 +724,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
       <c r="D9">
         <v>1218</v>
@@ -756,10 +744,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>1216</v>
@@ -776,13 +764,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -796,13 +784,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -816,16 +804,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>1272</v>
+        <v>1287</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -836,16 +824,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>1287</v>
+        <v>1223</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -856,16 +844,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>1270</v>
+        <v>1289</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -876,16 +864,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -896,16 +884,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>1222</v>
+        <v>1272</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -916,13 +904,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>1274</v>
+        <v>1249</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -936,13 +924,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>1249</v>
+        <v>1270</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -956,19 +944,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>1274</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>29</v>
-      </c>
-      <c r="D20">
-        <v>1235</v>
-      </c>
-      <c r="E20">
-        <v>978</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -976,19 +964,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
       <c r="D21">
-        <v>1230</v>
+        <v>1215</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -996,13 +984,13 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22">
-        <v>1215</v>
+        <v>1245</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1016,16 +1004,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23">
-        <v>1245</v>
+        <v>1251</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1036,13 +1024,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1056,7 +1044,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -1076,16 +1064,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1096,13 +1084,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1116,7 +1104,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
@@ -1128,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1136,19 +1124,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D29">
-        <v>1225</v>
+        <v>1242</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1159,13 +1147,13 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30">
-        <v>1242</v>
+        <v>1195</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1179,13 +1167,13 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31">
-        <v>1195</v>
+        <v>1239</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1199,13 +1187,13 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>1239</v>
+        <v>1277</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1219,7 +1207,7 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <v>1246</v>
@@ -1239,13 +1227,13 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1259,13 +1247,13 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35">
-        <v>1244</v>
+        <v>1268</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1279,10 +1267,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D36">
-        <v>1285</v>
+        <v>1244</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1299,10 +1287,10 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1319,10 +1307,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>1268</v>
+        <v>1238</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1339,13 +1327,13 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39">
-        <v>1238</v>
+        <v>1290</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1359,10 +1347,10 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D40">
-        <v>1269</v>
+        <v>1285</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1376,19 +1364,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D41">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="E41">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1396,19 +1384,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D42">
-        <v>1198</v>
+        <v>1257</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1416,13 +1404,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43">
-        <v>1227</v>
+        <v>1282</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1436,13 +1424,13 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44">
-        <v>1257</v>
+        <v>1294</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1456,16 +1444,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45">
-        <v>1282</v>
+        <v>1237</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1476,13 +1464,13 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D46">
-        <v>1284</v>
+        <v>1291</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1496,16 +1484,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D47">
-        <v>1237</v>
+        <v>1284</v>
       </c>
       <c r="E47">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1516,13 +1504,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D48">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -1536,16 +1524,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D49">
-        <v>1278</v>
+        <v>1258</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1556,19 +1544,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D50">
-        <v>1276</v>
+        <v>1214</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1576,78 +1564,18 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D51">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52">
-        <v>1258</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53">
-        <v>1214</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54">
-        <v>1266</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s">
         <v>9</v>
       </c>
     </row>
